--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\YourAnswer\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\WE\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA5B80A-D462-4C38-AC2A-C4B058F711F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2BD0D-3E42-438E-A03D-8D0ED1450F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1032" windowWidth="22692" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1188" windowWidth="22692" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TestRole01</t>
+    <t>PinkMan</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -562,7 +562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -612,7 +612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -620,7 +620,7 @@
       <c r="G7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -628,7 +628,7 @@
       <c r="G8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -636,7 +636,7 @@
       <c r="G9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -644,7 +644,7 @@
       <c r="G10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -652,7 +652,7 @@
       <c r="G11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -660,7 +660,7 @@
       <c r="G12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -669,7 +669,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -677,7 +677,7 @@
       <c r="G14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -685,7 +685,7 @@
       <c r="G15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="3:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -693,7 +693,7 @@
       <c r="G16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -701,7 +701,7 @@
       <c r="G17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\WE\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2BD0D-3E42-438E-A03D-8D0ED1450F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50064B-026E-48E0-9F5E-E80D4DE2BEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1188" windowWidth="22692" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PinkMan</t>
+    <t>Player</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>

--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\WE\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50064B-026E-48E0-9F5E-E80D4DE2BEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D85111-45AF-4291-B3B6-5025D7FFDEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1188" windowWidth="22692" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4764" yWindow="780" windowWidth="23040" windowHeight="12768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
@@ -56,26 +56,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>最大生命值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击伤害值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -101,6 +81,22 @@
   </si>
   <si>
     <t>Player</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界物品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于世界上的遗落物品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:K18"/>
+  <dimension ref="C2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -498,21 +494,24 @@
     <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="24" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -529,16 +528,13 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -553,16 +549,13 @@
         <v>7</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -577,16 +570,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -597,117 +587,119 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="4"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
